--- a/biology/Médecine/Veine_brachiale/Veine_brachiale.xlsx
+++ b/biology/Médecine/Veine_brachiale/Veine_brachiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les veines brachiales (ou veines humérales) sont les deux veines profondes du bras satellite de l'artère brachiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux veines brachiales, une latérale et une médiale, naissent au niveau du pli du coude de la convergence des veines radiales et ulnaires.
 Elles cheminent avec l'artère brachiale et s'anastomosent entre elles le long de leur trajet.
